--- a/data/trans_orig/P63-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P63-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCCCAB9F-8DFF-4047-9874-A2EA2C0225BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFD35BC9-0D65-4FBD-A6F1-3352C063835E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A9AD767-D17E-4023-BCD7-B7163FF1B334}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{37914155-6896-4CA3-A308-1154917406F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
   <si>
     <t>Población según si han trabajado anteriormente en 2007 (Tasa respuesta: 56,72%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>87,43%</t>
   </si>
   <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
   </si>
   <si>
     <t>57,57%</t>
   </si>
   <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
   </si>
   <si>
     <t>69,53%</t>
   </si>
   <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>12,57%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
   </si>
   <si>
     <t>42,43%</t>
   </si>
   <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
   </si>
   <si>
     <t>30,47%</t>
   </si>
   <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1240 +140,1222 @@
     <t>74,59%</t>
   </si>
   <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
   </si>
   <si>
     <t>49,17%</t>
   </si>
   <si>
-    <t>44,95%</t>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han trabajado anteriormente en 2012 (Tasa respuesta: 65,7%)</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>Población según si han trabajado anteriormente en 2015 (Tasa respuesta: 64,2%)</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
   </si>
   <si>
     <t>54,0%</t>
   </si>
   <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
   </si>
   <si>
     <t>46,0%</t>
   </si>
   <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>78,42%</t>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>Población según si han trabajado anteriormente en 2023 (Tasa respuesta: 56,73%)</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
   </si>
   <si>
     <t>74,41%</t>
   </si>
   <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
   </si>
   <si>
     <t>25,59%</t>
   </si>
   <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han trabajado anteriormente en 2012 (Tasa respuesta: 65,7%)</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>Población según si han trabajado anteriormente en 2015 (Tasa respuesta: 64,2%)</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
   </si>
   <si>
     <t>67,87%</t>
   </si>
   <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
   </si>
   <si>
     <t>32,13%</t>
   </si>
   <si>
-    <t>Población según si han trabajado anteriormente en 2023 (Tasa respuesta: 56,73%)</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
   </si>
   <si>
     <t>25,67%</t>
   </si>
   <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
   </si>
   <si>
     <t>56,14%</t>
   </si>
   <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
   </si>
   <si>
     <t>68,03%</t>
   </si>
   <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
   </si>
   <si>
     <t>43,86%</t>
   </si>
   <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
   </si>
   <si>
     <t>31,97%</t>
   </si>
   <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
   </si>
   <si>
     <t>62,06%</t>
   </si>
   <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
+    <t>59,22%</t>
   </si>
   <si>
     <t>71,05%</t>
   </si>
   <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
   </si>
   <si>
     <t>37,94%</t>
   </si>
   <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
+    <t>40,78%</t>
   </si>
   <si>
     <t>28,95%</t>
   </si>
   <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B2F6E6-3A52-4751-A9EB-72CDB1DA3EB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5E3808-5E98-48FC-A61E-0DF2E8D05C8A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2100,7 +2082,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2115,13 +2097,13 @@
         <v>63158</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>226</v>
@@ -2130,13 +2112,13 @@
         <v>225462</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>292</v>
@@ -2145,13 +2127,13 @@
         <v>288619</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,7 +2189,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2219,13 +2201,13 @@
         <v>314279</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>313</v>
@@ -2234,13 +2216,13 @@
         <v>338891</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>617</v>
@@ -2249,13 +2231,13 @@
         <v>653170</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,13 +2252,13 @@
         <v>86498</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>346</v>
@@ -2285,13 +2267,13 @@
         <v>361776</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>429</v>
@@ -2300,13 +2282,13 @@
         <v>448274</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,7 +2344,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2374,13 +2356,13 @@
         <v>231529</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>212</v>
@@ -2389,13 +2371,13 @@
         <v>205856</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>436</v>
@@ -2404,13 +2386,13 @@
         <v>437385</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,13 +2407,13 @@
         <v>39560</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>269</v>
@@ -2440,13 +2422,13 @@
         <v>262955</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>310</v>
@@ -2455,13 +2437,13 @@
         <v>302515</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,7 +2499,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2529,13 +2511,13 @@
         <v>282946</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>275</v>
@@ -2544,13 +2526,13 @@
         <v>286996</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>583</v>
@@ -2559,13 +2541,13 @@
         <v>569941</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,13 +2562,13 @@
         <v>101640</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>354</v>
@@ -2595,13 +2577,13 @@
         <v>361483</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>463</v>
@@ -2610,13 +2592,13 @@
         <v>463123</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,7 +2744,7 @@
         <v>1544</v>
       </c>
       <c r="N20" s="7">
-        <v>1546961</v>
+        <v>1546960</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>120</v>
@@ -2813,7 +2795,7 @@
         <v>3693</v>
       </c>
       <c r="N21" s="7">
-        <v>3712350</v>
+        <v>3712349</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2848,7 +2830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E69EA57-51DD-4961-8A71-7DDA97A85C53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644DDF13-72A1-4789-A3C8-B4639574D1F3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3270,7 +3252,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3425,7 +3407,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3580,7 +3562,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3589,7 +3571,7 @@
         <v>411</v>
       </c>
       <c r="D16" s="7">
-        <v>435547</v>
+        <v>435548</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>197</v>
@@ -3613,7 +3595,7 @@
         <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>789</v>
@@ -3622,13 +3604,13 @@
         <v>838149</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3625,13 @@
         <v>86387</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>334</v>
@@ -3658,13 +3640,13 @@
         <v>344683</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>423</v>
@@ -3673,13 +3655,13 @@
         <v>431070</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,7 +3673,7 @@
         <v>500</v>
       </c>
       <c r="D18" s="7">
-        <v>521934</v>
+        <v>521935</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3747,13 +3729,13 @@
         <v>1729101</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H19" s="7">
         <v>1365</v>
@@ -3762,13 +3744,13 @@
         <v>1486051</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M19" s="7">
         <v>2966</v>
@@ -3777,13 +3759,13 @@
         <v>3215153</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,7 +3780,7 @@
         <v>266882</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>223</v>
@@ -3810,7 +3792,7 @@
         <v>1044</v>
       </c>
       <c r="I20" s="7">
-        <v>1109351</v>
+        <v>1109352</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>225</v>
@@ -3861,7 +3843,7 @@
         <v>2409</v>
       </c>
       <c r="I21" s="7">
-        <v>2595402</v>
+        <v>2595403</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3911,7 +3893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE9882E-BBD0-4700-B649-B3412AD74601}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAEEBED-08F9-4232-9B25-4AFAE39466F7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4333,7 +4315,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4488,7 +4470,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4536,7 +4518,7 @@
         <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4533,13 @@
         <v>62577</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>217</v>
@@ -4566,13 +4548,13 @@
         <v>240928</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>274</v>
@@ -4581,13 +4563,13 @@
         <v>303505</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,7 +4625,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4655,13 +4637,13 @@
         <v>442549</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>348</v>
@@ -4670,13 +4652,13 @@
         <v>381079</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>794</v>
@@ -4685,13 +4667,13 @@
         <v>823627</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4688,13 @@
         <v>92927</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>301</v>
@@ -4721,13 +4703,13 @@
         <v>334175</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>393</v>
@@ -4736,13 +4718,13 @@
         <v>427102</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4792,13 @@
         <v>1678512</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H19" s="7">
         <v>1322</v>
@@ -4825,13 +4807,13 @@
         <v>1413352</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M19" s="7">
         <v>2953</v>
@@ -4840,13 +4822,13 @@
         <v>3091864</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4843,13 @@
         <v>287145</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>992</v>
@@ -4876,13 +4858,13 @@
         <v>1082025</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>1264</v>
@@ -4891,13 +4873,13 @@
         <v>1369170</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,7 +4956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6554DA3F-9E25-4DE3-A584-1200DC47B5EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C14FB9-1E88-42B3-8D90-5229849D1FC7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4991,7 +4973,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5098,13 +5080,13 @@
         <v>45253</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>113</v>
@@ -5113,13 +5095,13 @@
         <v>53940</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>345</v>
+        <v>218</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M4" s="7">
         <v>178</v>
@@ -5128,13 +5110,13 @@
         <v>99193</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>52</v>
+        <v>344</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5131,13 @@
         <v>4690</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H5" s="7">
         <v>57</v>
@@ -5164,13 +5146,13 @@
         <v>29424</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>354</v>
+        <v>227</v>
       </c>
       <c r="M5" s="7">
         <v>59</v>
@@ -5179,13 +5161,13 @@
         <v>34114</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>62</v>
+        <v>352</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5235,13 @@
         <v>219696</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H7" s="7">
         <v>460</v>
@@ -5268,13 +5250,13 @@
         <v>248107</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M7" s="7">
         <v>764</v>
@@ -5283,13 +5265,13 @@
         <v>467803</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5286,13 @@
         <v>30928</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H8" s="7">
         <v>190</v>
@@ -5319,13 +5301,13 @@
         <v>112803</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M8" s="7">
         <v>206</v>
@@ -5334,13 +5316,13 @@
         <v>143731</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,7 +5378,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5408,13 +5390,13 @@
         <v>325125</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H10" s="7">
         <v>577</v>
@@ -5423,13 +5405,13 @@
         <v>358803</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>970</v>
@@ -5438,13 +5420,13 @@
         <v>683927</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5441,13 @@
         <v>76800</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H11" s="7">
         <v>332</v>
@@ -5474,13 +5456,13 @@
         <v>249379</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M11" s="7">
         <v>371</v>
@@ -5489,13 +5471,13 @@
         <v>326180</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,7 +5533,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5563,13 +5545,13 @@
         <v>298205</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>398</v>
@@ -5578,13 +5560,13 @@
         <v>366710</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>329</v>
+        <v>394</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M13" s="7">
         <v>719</v>
@@ -5593,13 +5575,13 @@
         <v>664914</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5596,13 @@
         <v>56009</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H14" s="7">
         <v>218</v>
@@ -5629,7 +5611,7 @@
         <v>173593</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>339</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>404</v>
@@ -5706,7 +5688,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5718,13 +5700,13 @@
         <v>383529</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>578</v>
@@ -5733,28 +5715,28 @@
         <v>370167</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M16" s="7">
         <v>1058</v>
       </c>
       <c r="N16" s="7">
-        <v>753696</v>
+        <v>753697</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5751,13 @@
         <v>64966</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="H17" s="7">
         <v>362</v>
@@ -5784,13 +5766,13 @@
         <v>289161</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M17" s="7">
         <v>397</v>
@@ -5799,13 +5781,13 @@
         <v>354127</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,7 +5829,7 @@
         <v>1455</v>
       </c>
       <c r="N18" s="7">
-        <v>1107823</v>
+        <v>1107824</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5873,13 +5855,13 @@
         <v>1271807</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>427</v>
+        <v>144</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H19" s="7">
         <v>2126</v>
@@ -5888,13 +5870,13 @@
         <v>1397726</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>432</v>
+        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>3689</v>
@@ -5903,13 +5885,13 @@
         <v>2669534</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5906,13 @@
         <v>233394</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>436</v>
+        <v>154</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H20" s="7">
         <v>1159</v>
@@ -5939,13 +5921,13 @@
         <v>854361</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>440</v>
+        <v>367</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="M20" s="7">
         <v>1271</v>
@@ -5954,13 +5936,13 @@
         <v>1087754</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P63-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P63-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFD35BC9-0D65-4FBD-A6F1-3352C063835E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8610D38C-4600-4621-8A2A-68489460577A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{37914155-6896-4CA3-A308-1154917406F8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{90BC2506-D494-4C1A-8924-F3D941588CF3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="446">
   <si>
     <t>Población según si han trabajado anteriormente en 2007 (Tasa respuesta: 56,72%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,28 +77,28 @@
     <t>87,43%</t>
   </si>
   <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
   </si>
   <si>
     <t>57,57%</t>
   </si>
   <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
   </si>
   <si>
     <t>69,53%</t>
   </si>
   <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,196 +107,202 @@
     <t>12,57%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
   </si>
   <si>
     <t>42,43%</t>
   </si>
   <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
   </si>
   <si>
     <t>30,47%</t>
   </si>
   <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>74,59%</t>
   </si>
   <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
   </si>
   <si>
     <t>49,17%</t>
   </si>
   <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
   </si>
   <si>
     <t>58,3%</t>
   </si>
   <si>
-    <t>54,74%</t>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
   </si>
   <si>
     <t>25,41%</t>
   </si>
   <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
   </si>
   <si>
     <t>50,83%</t>
   </si>
   <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
   </si>
   <si>
     <t>41,7%</t>
   </si>
   <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>78,42%</t>
   </si>
   <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
   </si>
   <si>
     <t>48,37%</t>
   </si>
   <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
   </si>
   <si>
     <t>59,3%</t>
   </si>
   <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
   </si>
   <si>
     <t>21,58%</t>
   </si>
   <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
   </si>
   <si>
     <t>51,63%</t>
   </si>
   <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
   </si>
   <si>
     <t>40,7%</t>
   </si>
   <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>85,41%</t>
   </si>
   <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
   </si>
   <si>
     <t>43,91%</t>
   </si>
   <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
   </si>
   <si>
     <t>59,11%</t>
   </si>
   <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
   </si>
   <si>
     <t>56,09%</t>
   </si>
   <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
   </si>
   <si>
     <t>40,89%</t>
   </si>
   <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -305,109 +311,109 @@
     <t>73,57%</t>
   </si>
   <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
   </si>
   <si>
     <t>44,26%</t>
   </si>
   <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
   </si>
   <si>
     <t>55,17%</t>
   </si>
   <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
   </si>
   <si>
     <t>26,43%</t>
   </si>
   <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
   </si>
   <si>
     <t>55,74%</t>
   </si>
   <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
   </si>
   <si>
     <t>44,83%</t>
   </si>
   <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
   </si>
   <si>
     <t>78,13%</t>
   </si>
   <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
   </si>
   <si>
     <t>46,84%</t>
   </si>
   <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
   </si>
   <si>
     <t>58,33%</t>
   </si>
   <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
   </si>
   <si>
     <t>21,87%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
   </si>
   <si>
     <t>53,16%</t>
   </si>
   <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
   </si>
   <si>
     <t>41,67%</t>
   </si>
   <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -419,922 +425,937 @@
     <t>95,73%</t>
   </si>
   <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>56,07%</t>
   </si>
   <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
   </si>
   <si>
     <t>72,92%</t>
   </si>
   <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
   </si>
   <si>
     <t>43,93%</t>
   </si>
   <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
   </si>
   <si>
     <t>27,08%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
   </si>
   <si>
     <t>88,55%</t>
   </si>
   <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>Población según si han trabajado anteriormente en 2016 (Tasa respuesta: 64,2%)</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>Población según si han trabajado anteriormente en 2023 (Tasa respuesta: 56,73%)</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
     <t>84,49%</t>
   </si>
   <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
   </si>
   <si>
     <t>15,51%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>Población según si han trabajado anteriormente en 2015 (Tasa respuesta: 64,2%)</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>Población según si han trabajado anteriormente en 2023 (Tasa respuesta: 56,73%)</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
   </si>
   <si>
     <t>12,95%</t>
@@ -1767,7 +1788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5E3808-5E98-48FC-A61E-0DF2E8D05C8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486D0A6B-1AE4-469B-B06D-1D2E15F2D6F8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2082,7 +2103,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,13 +2118,13 @@
         <v>63158</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>226</v>
@@ -2112,13 +2133,13 @@
         <v>225462</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>292</v>
@@ -2127,13 +2148,13 @@
         <v>288619</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,7 +2210,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2201,13 +2222,13 @@
         <v>314279</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>313</v>
@@ -2216,13 +2237,13 @@
         <v>338891</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>617</v>
@@ -2231,13 +2252,13 @@
         <v>653170</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,13 +2273,13 @@
         <v>86498</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>346</v>
@@ -2267,13 +2288,13 @@
         <v>361776</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>429</v>
@@ -2282,13 +2303,13 @@
         <v>448274</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,7 +2365,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2356,13 +2377,13 @@
         <v>231529</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>212</v>
@@ -2371,13 +2392,13 @@
         <v>205856</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>436</v>
@@ -2386,13 +2407,13 @@
         <v>437385</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,13 +2428,13 @@
         <v>39560</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>269</v>
@@ -2422,13 +2443,13 @@
         <v>262955</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>310</v>
@@ -2437,13 +2458,13 @@
         <v>302515</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,7 +2520,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2511,13 +2532,13 @@
         <v>282946</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>275</v>
@@ -2526,13 +2547,13 @@
         <v>286996</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>583</v>
@@ -2541,13 +2562,13 @@
         <v>569941</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,13 +2583,13 @@
         <v>101640</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>354</v>
@@ -2577,13 +2598,13 @@
         <v>361483</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>463</v>
@@ -2592,13 +2613,13 @@
         <v>463123</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,13 +2687,13 @@
         <v>1065214</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>1073</v>
@@ -2681,13 +2702,13 @@
         <v>1100174</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>2149</v>
@@ -2696,13 +2717,13 @@
         <v>2165389</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2717,13 +2738,13 @@
         <v>298201</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>1238</v>
@@ -2732,13 +2753,13 @@
         <v>1248760</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>1544</v>
@@ -2747,13 +2768,13 @@
         <v>1546960</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,7 +2830,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2830,7 +2851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644DDF13-72A1-4789-A3C8-B4639574D1F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69870C6-A307-469A-AE75-EE73BDB4D138}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2847,7 +2868,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2954,13 +2975,13 @@
         <v>61298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -2969,13 +2990,13 @@
         <v>48624</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>107</v>
@@ -2984,13 +3005,13 @@
         <v>109921</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +3026,13 @@
         <v>2734</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>35</v>
@@ -3020,13 +3041,13 @@
         <v>38095</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -3035,13 +3056,13 @@
         <v>40830</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3130,13 @@
         <v>326310</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>263</v>
@@ -3124,13 +3145,13 @@
         <v>278998</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M7" s="7">
         <v>566</v>
@@ -3139,13 +3160,13 @@
         <v>605309</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3181,13 @@
         <v>42180</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>157</v>
@@ -3175,7 +3196,7 @@
         <v>167112</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>156</v>
@@ -3252,7 +3273,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3407,7 +3428,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3562,7 +3583,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3595,7 +3616,7 @@
         <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="M16" s="7">
         <v>789</v>
@@ -3604,13 +3625,13 @@
         <v>838149</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,28 +3646,28 @@
         <v>86387</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>334</v>
       </c>
       <c r="I17" s="7">
-        <v>344683</v>
+        <v>344684</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>24</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>423</v>
@@ -3655,13 +3676,13 @@
         <v>431070</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,7 +3709,7 @@
         <v>712</v>
       </c>
       <c r="I18" s="7">
-        <v>747284</v>
+        <v>747285</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3729,13 +3750,13 @@
         <v>1729101</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H19" s="7">
         <v>1365</v>
@@ -3744,13 +3765,13 @@
         <v>1486051</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M19" s="7">
         <v>2966</v>
@@ -3759,13 +3780,13 @@
         <v>3215153</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3801,13 @@
         <v>266882</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>1044</v>
@@ -3795,13 +3816,13 @@
         <v>1109352</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>1309</v>
@@ -3810,13 +3831,13 @@
         <v>1376233</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,7 +3893,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3893,7 +3914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAEEBED-08F9-4232-9B25-4AFAE39466F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C6CF85-C4A7-4227-B00F-781780029BDB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3910,7 +3931,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4017,13 +4038,13 @@
         <v>68530</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>54</v>
@@ -4032,13 +4053,13 @@
         <v>53490</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>120</v>
@@ -4047,13 +4068,13 @@
         <v>122020</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4089,13 @@
         <v>3995</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -4083,13 +4104,13 @@
         <v>29979</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -4098,13 +4119,13 @@
         <v>33974</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4193,13 @@
         <v>310451</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>236</v>
@@ -4187,13 +4208,13 @@
         <v>242654</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>540</v>
@@ -4202,13 +4223,13 @@
         <v>553105</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4244,13 @@
         <v>48534</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>172</v>
@@ -4238,13 +4259,13 @@
         <v>178378</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>219</v>
@@ -4253,13 +4274,13 @@
         <v>226912</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,7 +4336,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4327,13 +4348,13 @@
         <v>527807</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>433</v>
@@ -4342,13 +4363,13 @@
         <v>466215</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>939</v>
@@ -4357,13 +4378,13 @@
         <v>994022</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4399,13 @@
         <v>79112</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>273</v>
@@ -4393,13 +4414,13 @@
         <v>298566</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>345</v>
@@ -4408,13 +4429,13 @@
         <v>377678</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,7 +4491,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4482,13 +4503,13 @@
         <v>329177</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>251</v>
@@ -4497,28 +4518,28 @@
         <v>269913</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>560</v>
       </c>
       <c r="N13" s="7">
-        <v>599090</v>
+        <v>599089</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,10 +4587,10 @@
         <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,7 +4632,7 @@
         <v>834</v>
       </c>
       <c r="N15" s="7">
-        <v>902595</v>
+        <v>902594</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4625,7 +4646,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4637,13 +4658,13 @@
         <v>442549</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H16" s="7">
         <v>348</v>
@@ -4652,13 +4673,13 @@
         <v>381079</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M16" s="7">
         <v>794</v>
@@ -4667,13 +4688,13 @@
         <v>823627</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4709,13 @@
         <v>92927</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H17" s="7">
         <v>301</v>
@@ -4703,13 +4724,13 @@
         <v>334175</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M17" s="7">
         <v>393</v>
@@ -4718,13 +4739,13 @@
         <v>427102</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4813,13 @@
         <v>1678512</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H19" s="7">
         <v>1322</v>
@@ -4807,13 +4828,13 @@
         <v>1413352</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M19" s="7">
         <v>2953</v>
@@ -4822,13 +4843,13 @@
         <v>3091864</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4864,13 @@
         <v>287145</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H20" s="7">
         <v>992</v>
@@ -4858,13 +4879,13 @@
         <v>1082025</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M20" s="7">
         <v>1264</v>
@@ -4873,13 +4894,13 @@
         <v>1369170</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,7 +4956,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4956,7 +4977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C14FB9-1E88-42B3-8D90-5229849D1FC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F1D646-F327-454D-B230-BB3290AE2537}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4973,7 +4994,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5080,13 +5101,13 @@
         <v>45253</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H4" s="7">
         <v>113</v>
@@ -5095,13 +5116,13 @@
         <v>53940</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>218</v>
+        <v>344</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M4" s="7">
         <v>178</v>
@@ -5110,13 +5131,13 @@
         <v>99193</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5152,13 @@
         <v>4690</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H5" s="7">
         <v>57</v>
@@ -5146,13 +5167,13 @@
         <v>29424</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>227</v>
+        <v>354</v>
       </c>
       <c r="M5" s="7">
         <v>59</v>
@@ -5161,13 +5182,13 @@
         <v>34114</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5256,13 @@
         <v>219696</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H7" s="7">
         <v>460</v>
@@ -5250,13 +5271,13 @@
         <v>248107</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M7" s="7">
         <v>764</v>
@@ -5265,13 +5286,13 @@
         <v>467803</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5307,13 @@
         <v>30928</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H8" s="7">
         <v>190</v>
@@ -5301,13 +5322,13 @@
         <v>112803</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M8" s="7">
         <v>206</v>
@@ -5316,13 +5337,13 @@
         <v>143731</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,7 +5399,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5390,13 +5411,13 @@
         <v>325125</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H10" s="7">
         <v>577</v>
@@ -5405,13 +5426,13 @@
         <v>358803</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M10" s="7">
         <v>970</v>
@@ -5420,13 +5441,13 @@
         <v>683927</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5462,13 @@
         <v>76800</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H11" s="7">
         <v>332</v>
@@ -5456,13 +5477,13 @@
         <v>249379</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M11" s="7">
         <v>371</v>
@@ -5471,13 +5492,13 @@
         <v>326180</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,7 +5554,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5545,13 +5566,13 @@
         <v>298205</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H13" s="7">
         <v>398</v>
@@ -5560,13 +5581,13 @@
         <v>366710</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M13" s="7">
         <v>719</v>
@@ -5575,13 +5596,13 @@
         <v>664914</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,13 +5617,13 @@
         <v>56009</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H14" s="7">
         <v>218</v>
@@ -5611,13 +5632,13 @@
         <v>173593</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="M14" s="7">
         <v>238</v>
@@ -5626,13 +5647,13 @@
         <v>229602</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,7 +5709,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5700,13 +5721,13 @@
         <v>383529</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>412</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H16" s="7">
         <v>578</v>
@@ -5715,13 +5736,13 @@
         <v>370167</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M16" s="7">
         <v>1058</v>
@@ -5730,13 +5751,13 @@
         <v>753697</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5772,13 @@
         <v>64966</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>421</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="H17" s="7">
         <v>362</v>
@@ -5766,13 +5787,13 @@
         <v>289161</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="M17" s="7">
         <v>397</v>
@@ -5781,13 +5802,13 @@
         <v>354127</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5876,13 @@
         <v>1271807</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>144</v>
+        <v>430</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="H19" s="7">
         <v>2126</v>
@@ -5870,13 +5891,13 @@
         <v>1397726</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M19" s="7">
         <v>3689</v>
@@ -5885,13 +5906,13 @@
         <v>2669534</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5927,13 @@
         <v>233394</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>154</v>
+        <v>438</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="H20" s="7">
         <v>1159</v>
@@ -5921,13 +5942,13 @@
         <v>854361</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="M20" s="7">
         <v>1271</v>
@@ -5936,13 +5957,13 @@
         <v>1087754</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5998,7 +6019,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
